--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -1236,11 +1236,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1366,11 +1366,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1381,34 +1388,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1428,10 +1419,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1457,19 +1465,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,21 +1492,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1580,25 +1580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,13 +1592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,13 +1616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,7 +1628,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,55 +1736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,37 +1754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,41 +2021,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,17 +2041,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2105,7 +2064,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,142 +2114,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3707,11 +3707,11 @@
   <dimension ref="A1:DD560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
+      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -1523,7 +1523,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,6 +1551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,76 +2120,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2192,7 +2198,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,7 +2207,7 @@
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2213,25 +2219,25 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2243,16 +2249,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2404,7 +2410,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2455,19 +2461,19 @@
     <xf numFmtId="176" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2488,10 +2494,10 @@
     <xf numFmtId="177" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2500,28 +2506,28 @@
     <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3707,11 +3713,11 @@
   <dimension ref="A1:DD560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4"/>
+      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -2265,7 +2265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2529,9 +2529,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3713,11 +3710,11 @@
   <dimension ref="A1:DD560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BJ2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
+      <selection pane="bottomRight" activeCell="BO7" sqref="BO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3840,35 +3837,35 @@
       <c r="BU1" s="82"/>
       <c r="BV1" s="82"/>
       <c r="BW1" s="82"/>
-      <c r="BY1" s="89"/>
-      <c r="BZ1" s="89"/>
-      <c r="CA1" s="89"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="89"/>
-      <c r="CD1" s="89"/>
-      <c r="CE1" s="89"/>
-      <c r="CF1" s="89"/>
-      <c r="CH1" s="89"/>
-      <c r="CI1" s="89"/>
-      <c r="CJ1" s="89"/>
-      <c r="CK1" s="89"/>
-      <c r="CL1" s="89"/>
-      <c r="CM1" s="89"/>
-      <c r="CN1" s="89"/>
-      <c r="CP1" s="89"/>
-      <c r="CQ1" s="89"/>
-      <c r="CR1" s="89"/>
-      <c r="CS1" s="89"/>
-      <c r="CT1" s="89"/>
-      <c r="CU1" s="89"/>
-      <c r="CV1" s="89"/>
-      <c r="CX1" s="89"/>
-      <c r="CY1" s="89"/>
-      <c r="CZ1" s="89"/>
-      <c r="DA1" s="89"/>
-      <c r="DB1" s="89"/>
-      <c r="DC1" s="89"/>
-      <c r="DD1" s="89"/>
+      <c r="BY1" s="88"/>
+      <c r="BZ1" s="88"/>
+      <c r="CA1" s="88"/>
+      <c r="CB1" s="88"/>
+      <c r="CC1" s="88"/>
+      <c r="CD1" s="88"/>
+      <c r="CE1" s="88"/>
+      <c r="CF1" s="88"/>
+      <c r="CH1" s="88"/>
+      <c r="CI1" s="88"/>
+      <c r="CJ1" s="88"/>
+      <c r="CK1" s="88"/>
+      <c r="CL1" s="88"/>
+      <c r="CM1" s="88"/>
+      <c r="CN1" s="88"/>
+      <c r="CP1" s="88"/>
+      <c r="CQ1" s="88"/>
+      <c r="CR1" s="88"/>
+      <c r="CS1" s="88"/>
+      <c r="CT1" s="88"/>
+      <c r="CU1" s="88"/>
+      <c r="CV1" s="88"/>
+      <c r="CX1" s="88"/>
+      <c r="CY1" s="88"/>
+      <c r="CZ1" s="88"/>
+      <c r="DA1" s="88"/>
+      <c r="DB1" s="88"/>
+      <c r="DC1" s="88"/>
+      <c r="DD1" s="88"/>
     </row>
     <row r="2" ht="23.6" spans="1:108">
       <c r="A2" s="5" t="s">
@@ -4038,35 +4035,35 @@
       <c r="BU2" s="82"/>
       <c r="BV2" s="82"/>
       <c r="BW2" s="82"/>
-      <c r="BY2" s="89"/>
-      <c r="BZ2" s="89"/>
-      <c r="CA2" s="89"/>
-      <c r="CB2" s="89"/>
-      <c r="CC2" s="89"/>
-      <c r="CD2" s="89"/>
-      <c r="CE2" s="89"/>
-      <c r="CF2" s="89"/>
-      <c r="CH2" s="89"/>
-      <c r="CI2" s="89"/>
-      <c r="CJ2" s="89"/>
-      <c r="CK2" s="89"/>
-      <c r="CL2" s="89"/>
-      <c r="CM2" s="89"/>
-      <c r="CN2" s="89"/>
-      <c r="CP2" s="89"/>
-      <c r="CQ2" s="89"/>
-      <c r="CR2" s="89"/>
-      <c r="CS2" s="89"/>
-      <c r="CT2" s="89"/>
-      <c r="CU2" s="89"/>
-      <c r="CV2" s="89"/>
-      <c r="CX2" s="89"/>
-      <c r="CY2" s="89"/>
-      <c r="CZ2" s="89"/>
-      <c r="DA2" s="89"/>
-      <c r="DB2" s="89"/>
-      <c r="DC2" s="89"/>
-      <c r="DD2" s="89"/>
+      <c r="BY2" s="88"/>
+      <c r="BZ2" s="88"/>
+      <c r="CA2" s="88"/>
+      <c r="CB2" s="88"/>
+      <c r="CC2" s="88"/>
+      <c r="CD2" s="88"/>
+      <c r="CE2" s="88"/>
+      <c r="CF2" s="88"/>
+      <c r="CH2" s="88"/>
+      <c r="CI2" s="88"/>
+      <c r="CJ2" s="88"/>
+      <c r="CK2" s="88"/>
+      <c r="CL2" s="88"/>
+      <c r="CM2" s="88"/>
+      <c r="CN2" s="88"/>
+      <c r="CP2" s="88"/>
+      <c r="CQ2" s="88"/>
+      <c r="CR2" s="88"/>
+      <c r="CS2" s="88"/>
+      <c r="CT2" s="88"/>
+      <c r="CU2" s="88"/>
+      <c r="CV2" s="88"/>
+      <c r="CX2" s="88"/>
+      <c r="CY2" s="88"/>
+      <c r="CZ2" s="88"/>
+      <c r="DA2" s="88"/>
+      <c r="DB2" s="88"/>
+      <c r="DC2" s="88"/>
+      <c r="DD2" s="88"/>
     </row>
     <row r="3" ht="48" spans="1:108">
       <c r="A3" s="5"/>
@@ -4190,38 +4187,38 @@
       <c r="BU3" s="82"/>
       <c r="BV3" s="82"/>
       <c r="BW3" s="82"/>
-      <c r="BY3" s="89"/>
-      <c r="BZ3" s="89"/>
-      <c r="CA3" s="89"/>
-      <c r="CB3" s="89"/>
-      <c r="CC3" s="89"/>
-      <c r="CD3" s="89"/>
-      <c r="CE3" s="89"/>
-      <c r="CF3" s="89"/>
-      <c r="CH3" s="89"/>
-      <c r="CI3" s="89"/>
-      <c r="CJ3" s="89"/>
-      <c r="CK3" s="89"/>
-      <c r="CL3" s="89"/>
-      <c r="CM3" s="89"/>
-      <c r="CN3" s="89"/>
-      <c r="CP3" s="89"/>
-      <c r="CQ3" s="89"/>
-      <c r="CR3" s="89"/>
-      <c r="CS3" s="89"/>
-      <c r="CT3" s="89"/>
-      <c r="CU3" s="89"/>
-      <c r="CV3" s="89"/>
-      <c r="CX3" s="89"/>
-      <c r="CY3" s="89"/>
-      <c r="CZ3" s="89"/>
-      <c r="DA3" s="89"/>
-      <c r="DB3" s="89"/>
-      <c r="DC3" s="89"/>
-      <c r="DD3" s="89"/>
+      <c r="BY3" s="88"/>
+      <c r="BZ3" s="88"/>
+      <c r="CA3" s="88"/>
+      <c r="CB3" s="88"/>
+      <c r="CC3" s="88"/>
+      <c r="CD3" s="88"/>
+      <c r="CE3" s="88"/>
+      <c r="CF3" s="88"/>
+      <c r="CH3" s="88"/>
+      <c r="CI3" s="88"/>
+      <c r="CJ3" s="88"/>
+      <c r="CK3" s="88"/>
+      <c r="CL3" s="88"/>
+      <c r="CM3" s="88"/>
+      <c r="CN3" s="88"/>
+      <c r="CP3" s="88"/>
+      <c r="CQ3" s="88"/>
+      <c r="CR3" s="88"/>
+      <c r="CS3" s="88"/>
+      <c r="CT3" s="88"/>
+      <c r="CU3" s="88"/>
+      <c r="CV3" s="88"/>
+      <c r="CX3" s="88"/>
+      <c r="CY3" s="88"/>
+      <c r="CZ3" s="88"/>
+      <c r="DA3" s="88"/>
+      <c r="DB3" s="88"/>
+      <c r="DC3" s="88"/>
+      <c r="DD3" s="88"/>
     </row>
     <row r="4" ht="24" spans="1:67">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="11">
@@ -4410,7 +4407,7 @@
       </c>
     </row>
     <row r="5" ht="24" spans="1:66">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="14">
@@ -4592,7 +4589,7 @@
       <c r="BN5" s="20"/>
     </row>
     <row r="6" ht="36" spans="1:66">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="14">
@@ -4770,7 +4767,7 @@
       <c r="BN6" s="20"/>
     </row>
     <row r="7" ht="24" spans="1:67">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="90" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="18">
@@ -4963,10 +4960,12 @@
         <v>-52.1360799999998</v>
       </c>
       <c r="BN7" s="17"/>
-      <c r="BO7" s="88"/>
+      <c r="BO7" s="51" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" ht="13" spans="1:66">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="91" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="21">
@@ -5118,7 +5117,7 @@
       <c r="BN8" s="20"/>
     </row>
     <row r="9" ht="24" spans="1:66">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="21">
@@ -5248,7 +5247,7 @@
       <c r="BN9" s="20"/>
     </row>
     <row r="10" ht="13" spans="1:66">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="91" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="21">
@@ -5386,7 +5385,7 @@
       <c r="BN10" s="20"/>
     </row>
     <row r="11" ht="13" spans="1:66">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="91" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="21">
@@ -5519,7 +5518,7 @@
       <c r="BN11" s="20"/>
     </row>
     <row r="12" ht="13" spans="1:66">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="91" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="21">
@@ -5652,7 +5651,7 @@
       <c r="BN12" s="20"/>
     </row>
     <row r="13" ht="13" spans="1:66">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="91" t="s">
         <v>109</v>
       </c>
       <c r="B13" s="20"/>
@@ -5721,7 +5720,7 @@
       <c r="BN13" s="20"/>
     </row>
     <row r="14" ht="13" spans="1:66">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="91" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="20"/>
@@ -5790,7 +5789,7 @@
       <c r="BN14" s="20"/>
     </row>
     <row r="15" ht="13" spans="1:66">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="91" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="20"/>
@@ -5859,7 +5858,7 @@
       <c r="BN15" s="20"/>
     </row>
     <row r="16" ht="13" spans="1:66">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="91" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="20"/>
@@ -5928,7 +5927,7 @@
       <c r="BN16" s="20"/>
     </row>
     <row r="17" ht="13" spans="1:66">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="91" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="20"/>
@@ -5997,7 +5996,7 @@
       <c r="BN17" s="20"/>
     </row>
     <row r="18" ht="13" spans="1:66">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="91" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="20"/>
@@ -6066,7 +6065,7 @@
       <c r="BN18" s="20"/>
     </row>
     <row r="19" ht="13" spans="1:66">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="91" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="20"/>
@@ -6135,7 +6134,7 @@
       <c r="BN19" s="20"/>
     </row>
     <row r="20" ht="13" spans="1:66">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="20"/>
@@ -6204,7 +6203,7 @@
       <c r="BN20" s="20"/>
     </row>
     <row r="21" ht="13" spans="1:66">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="91" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="20"/>
@@ -6273,7 +6272,7 @@
       <c r="BN21" s="20"/>
     </row>
     <row r="22" ht="13" spans="1:66">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="91" t="s">
         <v>118</v>
       </c>
       <c r="B22" s="20"/>
@@ -6342,7 +6341,7 @@
       <c r="BN22" s="20"/>
     </row>
     <row r="23" ht="13" spans="1:66">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="91" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="20"/>
@@ -6411,7 +6410,7 @@
       <c r="BN23" s="20"/>
     </row>
     <row r="24" ht="13" spans="1:66">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="91" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="20"/>
@@ -6480,7 +6479,7 @@
       <c r="BN24" s="20"/>
     </row>
     <row r="25" ht="13" spans="1:66">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="91" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="20"/>
@@ -6549,7 +6548,7 @@
       <c r="BN25" s="20"/>
     </row>
     <row r="26" ht="13" spans="1:66">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="91" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="20"/>
@@ -6618,7 +6617,7 @@
       <c r="BN26" s="20"/>
     </row>
     <row r="27" ht="13" spans="1:66">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="91" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="20"/>
@@ -6687,7 +6686,7 @@
       <c r="BN27" s="20"/>
     </row>
     <row r="28" ht="13" spans="1:66">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="91" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="20"/>
@@ -6756,7 +6755,7 @@
       <c r="BN28" s="20"/>
     </row>
     <row r="29" ht="13" spans="1:66">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="91" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="20"/>
@@ -6825,7 +6824,7 @@
       <c r="BN29" s="20"/>
     </row>
     <row r="30" ht="13" spans="1:66">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="91" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="20"/>
@@ -6894,7 +6893,7 @@
       <c r="BN30" s="20"/>
     </row>
     <row r="31" ht="13" spans="1:66">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="91" t="s">
         <v>127</v>
       </c>
       <c r="B31" s="20"/>
@@ -6963,7 +6962,7 @@
       <c r="BN31" s="20"/>
     </row>
     <row r="32" ht="13" spans="1:66">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="91" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="20"/>
@@ -7032,7 +7031,7 @@
       <c r="BN32" s="20"/>
     </row>
     <row r="33" ht="13" spans="1:66">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="91" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="20"/>
@@ -7101,7 +7100,7 @@
       <c r="BN33" s="20"/>
     </row>
     <row r="34" ht="13" spans="1:66">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="91" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="20"/>
@@ -7170,7 +7169,7 @@
       <c r="BN34" s="20"/>
     </row>
     <row r="35" ht="13" spans="1:66">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="91" t="s">
         <v>131</v>
       </c>
       <c r="B35" s="20"/>
@@ -7239,7 +7238,7 @@
       <c r="BN35" s="20"/>
     </row>
     <row r="36" ht="13" spans="1:66">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="91" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="20"/>
@@ -7308,7 +7307,7 @@
       <c r="BN36" s="20"/>
     </row>
     <row r="37" ht="13" spans="1:66">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="91" t="s">
         <v>133</v>
       </c>
       <c r="B37" s="20"/>
@@ -7377,7 +7376,7 @@
       <c r="BN37" s="20"/>
     </row>
     <row r="38" ht="13" spans="1:66">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="91" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="20"/>
@@ -7446,7 +7445,7 @@
       <c r="BN38" s="20"/>
     </row>
     <row r="39" ht="13" spans="1:66">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="91" t="s">
         <v>135</v>
       </c>
       <c r="B39" s="20"/>
@@ -7515,7 +7514,7 @@
       <c r="BN39" s="20"/>
     </row>
     <row r="40" ht="13" spans="1:66">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="91" t="s">
         <v>136</v>
       </c>
       <c r="B40" s="20"/>
@@ -7584,7 +7583,7 @@
       <c r="BN40" s="20"/>
     </row>
     <row r="41" ht="13" spans="1:66">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="91" t="s">
         <v>137</v>
       </c>
       <c r="B41" s="20"/>
@@ -7653,7 +7652,7 @@
       <c r="BN41" s="20"/>
     </row>
     <row r="42" ht="13" spans="1:66">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="91" t="s">
         <v>138</v>
       </c>
       <c r="B42" s="20"/>
@@ -7722,7 +7721,7 @@
       <c r="BN42" s="20"/>
     </row>
     <row r="43" ht="13" spans="1:66">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="91" t="s">
         <v>139</v>
       </c>
       <c r="B43" s="20"/>
@@ -7791,7 +7790,7 @@
       <c r="BN43" s="20"/>
     </row>
     <row r="44" ht="13" spans="1:66">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="91" t="s">
         <v>140</v>
       </c>
       <c r="B44" s="20"/>
@@ -7860,7 +7859,7 @@
       <c r="BN44" s="20"/>
     </row>
     <row r="45" ht="13" spans="1:66">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="91" t="s">
         <v>141</v>
       </c>
       <c r="B45" s="20"/>
@@ -7929,7 +7928,7 @@
       <c r="BN45" s="20"/>
     </row>
     <row r="46" ht="13" spans="1:66">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="91" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="20"/>
@@ -7998,7 +7997,7 @@
       <c r="BN46" s="20"/>
     </row>
     <row r="47" ht="13" spans="1:66">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="91" t="s">
         <v>143</v>
       </c>
       <c r="B47" s="20"/>
@@ -8067,7 +8066,7 @@
       <c r="BN47" s="20"/>
     </row>
     <row r="48" ht="13" spans="1:66">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="91" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="20"/>
@@ -8136,7 +8135,7 @@
       <c r="BN48" s="20"/>
     </row>
     <row r="49" ht="13" spans="1:66">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="91" t="s">
         <v>145</v>
       </c>
       <c r="B49" s="20"/>
@@ -8205,7 +8204,7 @@
       <c r="BN49" s="20"/>
     </row>
     <row r="50" ht="13" spans="1:66">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="91" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="20"/>
@@ -8274,7 +8273,7 @@
       <c r="BN50" s="20"/>
     </row>
     <row r="51" ht="13" spans="1:66">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="91" t="s">
         <v>147</v>
       </c>
       <c r="B51" s="20"/>
@@ -8343,7 +8342,7 @@
       <c r="BN51" s="20"/>
     </row>
     <row r="52" ht="13" spans="1:66">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="91" t="s">
         <v>148</v>
       </c>
       <c r="B52" s="20"/>
@@ -8412,7 +8411,7 @@
       <c r="BN52" s="20"/>
     </row>
     <row r="53" ht="13" spans="1:66">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="91" t="s">
         <v>149</v>
       </c>
       <c r="B53" s="20"/>
@@ -8481,7 +8480,7 @@
       <c r="BN53" s="20"/>
     </row>
     <row r="54" ht="13" spans="1:66">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="91" t="s">
         <v>150</v>
       </c>
       <c r="B54" s="20"/>
@@ -8550,7 +8549,7 @@
       <c r="BN54" s="20"/>
     </row>
     <row r="55" ht="13" spans="1:66">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="91" t="s">
         <v>151</v>
       </c>
       <c r="B55" s="20"/>
@@ -8619,7 +8618,7 @@
       <c r="BN55" s="20"/>
     </row>
     <row r="56" ht="13" spans="1:66">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="91" t="s">
         <v>152</v>
       </c>
       <c r="B56" s="20"/>
@@ -8688,7 +8687,7 @@
       <c r="BN56" s="20"/>
     </row>
     <row r="57" ht="13" spans="1:66">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="91" t="s">
         <v>153</v>
       </c>
       <c r="B57" s="20"/>
@@ -8757,7 +8756,7 @@
       <c r="BN57" s="20"/>
     </row>
     <row r="58" ht="13" spans="1:66">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="91" t="s">
         <v>154</v>
       </c>
       <c r="B58" s="20"/>
@@ -8826,7 +8825,7 @@
       <c r="BN58" s="20"/>
     </row>
     <row r="59" ht="13" spans="1:66">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="91" t="s">
         <v>155</v>
       </c>
       <c r="B59" s="20"/>
@@ -8895,7 +8894,7 @@
       <c r="BN59" s="20"/>
     </row>
     <row r="60" ht="13" spans="1:66">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="91" t="s">
         <v>156</v>
       </c>
       <c r="B60" s="20"/>
@@ -8964,7 +8963,7 @@
       <c r="BN60" s="20"/>
     </row>
     <row r="61" ht="13" spans="1:66">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="91" t="s">
         <v>157</v>
       </c>
       <c r="B61" s="20"/>
@@ -9033,7 +9032,7 @@
       <c r="BN61" s="20"/>
     </row>
     <row r="62" ht="13" spans="1:66">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="91" t="s">
         <v>158</v>
       </c>
       <c r="B62" s="20"/>
@@ -9102,7 +9101,7 @@
       <c r="BN62" s="20"/>
     </row>
     <row r="63" ht="13" spans="1:66">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="91" t="s">
         <v>159</v>
       </c>
       <c r="B63" s="20"/>

--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>交易计划</t>
   </si>
@@ -842,7 +842,7 @@
     <t>不宜入场</t>
   </si>
   <si>
-    <t>入场过早</t>
+    <t>没注意随着价格的收缩成交量放量，导致入场过早</t>
   </si>
   <si>
     <t>000002</t>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>由于价格收缩不明显，成交量收缩情况不予考虑</t>
+  </si>
+  <si>
+    <t>没注意价格的收缩幅度不够，导致入场过早</t>
   </si>
   <si>
     <t>000010</t>
@@ -3749,11 +3752,11 @@
   <dimension ref="A1:DD560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomRight" activeCell="BO7" sqref="BO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3790,6 +3793,7 @@
     <col min="61" max="63" width="20.375" customWidth="1"/>
     <col min="64" max="65" width="21.4196428571429" customWidth="1"/>
     <col min="66" max="66" width="26.9285714285714" customWidth="1"/>
+    <col min="67" max="67" width="26.7857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.6" spans="1:108">
@@ -5000,18 +5004,18 @@
       </c>
       <c r="BN7" s="20"/>
       <c r="BO7" s="55" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:66">
       <c r="A8" s="104" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="24">
         <v>44524</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" s="23">
         <v>18.26</v>
@@ -5062,7 +5066,7 @@
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="47">
         <f t="shared" si="2"/>
@@ -5086,7 +5090,7 @@
         <v>88</v>
       </c>
       <c r="AF8" s="56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" s="23">
         <v>25.19</v>
@@ -5157,13 +5161,13 @@
     </row>
     <row r="9" ht="24" spans="1:66">
       <c r="A9" s="104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="24">
         <v>44524</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="23">
         <v>20.14</v>
@@ -5287,13 +5291,13 @@
     </row>
     <row r="10" ht="13" spans="1:66">
       <c r="A10" s="104" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="24">
         <v>44524</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="23">
         <v>19.9</v>
@@ -5348,7 +5352,7 @@
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
       <c r="X10" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y10" s="47">
         <f t="shared" si="2"/>
@@ -5372,7 +5376,7 @@
         <v>88</v>
       </c>
       <c r="AF10" s="56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
@@ -5425,13 +5429,13 @@
     </row>
     <row r="11" ht="13" spans="1:66">
       <c r="A11" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="24">
         <v>44524</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="23">
         <v>26.7</v>
@@ -5503,7 +5507,7 @@
         <v>88</v>
       </c>
       <c r="AF11" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
@@ -5558,13 +5562,13 @@
     </row>
     <row r="12" ht="13" spans="1:66">
       <c r="A12" s="104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" s="24">
         <v>44524</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="23">
         <v>32.91</v>
@@ -5615,7 +5619,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="47">
         <f t="shared" si="2"/>
@@ -5636,7 +5640,7 @@
         <v>88</v>
       </c>
       <c r="AF12" s="56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG12" s="23"/>
       <c r="AH12" s="23"/>
@@ -5691,7 +5695,7 @@
     </row>
     <row r="13" ht="13" spans="1:66">
       <c r="A13" s="104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -5760,7 +5764,7 @@
     </row>
     <row r="14" ht="13" spans="1:66">
       <c r="A14" s="104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -5829,7 +5833,7 @@
     </row>
     <row r="15" ht="13" spans="1:66">
       <c r="A15" s="104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -5898,7 +5902,7 @@
     </row>
     <row r="16" ht="13" spans="1:66">
       <c r="A16" s="104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -5967,7 +5971,7 @@
     </row>
     <row r="17" ht="13" spans="1:66">
       <c r="A17" s="104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="18" ht="13" spans="1:66">
       <c r="A18" s="104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -6105,7 +6109,7 @@
     </row>
     <row r="19" ht="13" spans="1:66">
       <c r="A19" s="104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -6174,7 +6178,7 @@
     </row>
     <row r="20" ht="13" spans="1:66">
       <c r="A20" s="104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -6243,7 +6247,7 @@
     </row>
     <row r="21" ht="13" spans="1:66">
       <c r="A21" s="104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -6312,7 +6316,7 @@
     </row>
     <row r="22" ht="13" spans="1:66">
       <c r="A22" s="104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -6381,7 +6385,7 @@
     </row>
     <row r="23" ht="13" spans="1:66">
       <c r="A23" s="104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -6450,7 +6454,7 @@
     </row>
     <row r="24" ht="13" spans="1:66">
       <c r="A24" s="104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -6519,7 +6523,7 @@
     </row>
     <row r="25" ht="13" spans="1:66">
       <c r="A25" s="104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -6588,7 +6592,7 @@
     </row>
     <row r="26" ht="13" spans="1:66">
       <c r="A26" s="104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -6657,7 +6661,7 @@
     </row>
     <row r="27" ht="13" spans="1:66">
       <c r="A27" s="104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -6726,7 +6730,7 @@
     </row>
     <row r="28" ht="13" spans="1:66">
       <c r="A28" s="104" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -6795,7 +6799,7 @@
     </row>
     <row r="29" ht="13" spans="1:66">
       <c r="A29" s="104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -6864,7 +6868,7 @@
     </row>
     <row r="30" ht="13" spans="1:66">
       <c r="A30" s="104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -6933,7 +6937,7 @@
     </row>
     <row r="31" ht="13" spans="1:66">
       <c r="A31" s="104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -7002,7 +7006,7 @@
     </row>
     <row r="32" ht="13" spans="1:66">
       <c r="A32" s="104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -7071,7 +7075,7 @@
     </row>
     <row r="33" ht="13" spans="1:66">
       <c r="A33" s="104" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -7140,7 +7144,7 @@
     </row>
     <row r="34" ht="13" spans="1:66">
       <c r="A34" s="104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -7209,7 +7213,7 @@
     </row>
     <row r="35" ht="13" spans="1:66">
       <c r="A35" s="104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="36" ht="13" spans="1:66">
       <c r="A36" s="104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -7347,7 +7351,7 @@
     </row>
     <row r="37" ht="13" spans="1:66">
       <c r="A37" s="104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -7416,7 +7420,7 @@
     </row>
     <row r="38" ht="13" spans="1:66">
       <c r="A38" s="104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -7485,7 +7489,7 @@
     </row>
     <row r="39" ht="13" spans="1:66">
       <c r="A39" s="104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -7554,7 +7558,7 @@
     </row>
     <row r="40" ht="13" spans="1:66">
       <c r="A40" s="104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -7623,7 +7627,7 @@
     </row>
     <row r="41" ht="13" spans="1:66">
       <c r="A41" s="104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -7692,7 +7696,7 @@
     </row>
     <row r="42" ht="13" spans="1:66">
       <c r="A42" s="104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -7761,7 +7765,7 @@
     </row>
     <row r="43" ht="13" spans="1:66">
       <c r="A43" s="104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -7830,7 +7834,7 @@
     </row>
     <row r="44" ht="13" spans="1:66">
       <c r="A44" s="104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -7899,7 +7903,7 @@
     </row>
     <row r="45" ht="13" spans="1:66">
       <c r="A45" s="104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -7968,7 +7972,7 @@
     </row>
     <row r="46" ht="13" spans="1:66">
       <c r="A46" s="104" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="47" ht="13" spans="1:66">
       <c r="A47" s="104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8106,7 +8110,7 @@
     </row>
     <row r="48" ht="13" spans="1:66">
       <c r="A48" s="104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8175,7 +8179,7 @@
     </row>
     <row r="49" ht="13" spans="1:66">
       <c r="A49" s="104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8244,7 +8248,7 @@
     </row>
     <row r="50" ht="13" spans="1:66">
       <c r="A50" s="104" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -8313,7 +8317,7 @@
     </row>
     <row r="51" ht="13" spans="1:66">
       <c r="A51" s="104" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -8382,7 +8386,7 @@
     </row>
     <row r="52" ht="13" spans="1:66">
       <c r="A52" s="104" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -8451,7 +8455,7 @@
     </row>
     <row r="53" ht="13" spans="1:66">
       <c r="A53" s="104" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -8520,7 +8524,7 @@
     </row>
     <row r="54" ht="13" spans="1:66">
       <c r="A54" s="104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -8589,7 +8593,7 @@
     </row>
     <row r="55" ht="13" spans="1:66">
       <c r="A55" s="104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -8658,7 +8662,7 @@
     </row>
     <row r="56" ht="13" spans="1:66">
       <c r="A56" s="104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8727,7 +8731,7 @@
     </row>
     <row r="57" ht="13" spans="1:66">
       <c r="A57" s="104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8796,7 +8800,7 @@
     </row>
     <row r="58" ht="13" spans="1:66">
       <c r="A58" s="104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -8865,7 +8869,7 @@
     </row>
     <row r="59" ht="13" spans="1:66">
       <c r="A59" s="104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -8934,7 +8938,7 @@
     </row>
     <row r="60" ht="13" spans="1:66">
       <c r="A60" s="104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -9003,7 +9007,7 @@
     </row>
     <row r="61" ht="13" spans="1:66">
       <c r="A61" s="104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -9072,7 +9076,7 @@
     </row>
     <row r="62" ht="13" spans="1:66">
       <c r="A62" s="104" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -9141,7 +9145,7 @@
     </row>
     <row r="63" ht="13" spans="1:66">
       <c r="A63" s="104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -37618,22 +37622,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CU1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -3816,11 +3816,11 @@
   <dimension ref="A1:DE560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>交易计划</t>
   </si>
@@ -977,9 +977,6 @@
     <t>12w</t>
   </si>
   <si>
-    <t>成</t>
-  </si>
-  <si>
     <t>000014</t>
   </si>
   <si>
@@ -1042,9 +1039,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>略明显</t>
   </si>
   <si>
     <t>000017</t>
@@ -3816,11 +3810,11 @@
   <dimension ref="A1:DE560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5087,7 +5081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" ht="13" spans="1:67">
+    <row r="8" ht="24" spans="1:67">
       <c r="A8" s="107" t="s">
         <v>96</v>
       </c>
@@ -5171,7 +5165,7 @@
         <v>90</v>
       </c>
       <c r="AG8" s="64" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AH8" s="23">
         <v>25.19</v>
@@ -5216,7 +5210,7 @@
         <v>53.49</v>
       </c>
       <c r="AT8" s="64" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AU8" s="23"/>
       <c r="AV8" s="23"/>
@@ -5242,13 +5236,13 @@
     </row>
     <row r="9" ht="24" spans="1:67">
       <c r="A9" s="107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="24">
         <v>44524</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="23">
         <v>20.14</v>
@@ -5373,13 +5367,13 @@
     </row>
     <row r="10" ht="13" spans="1:67">
       <c r="A10" s="107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="24">
         <v>44524</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="23">
         <v>19.9</v>
@@ -5458,9 +5452,7 @@
       <c r="AF10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG10" s="64" t="s">
-        <v>104</v>
-      </c>
+      <c r="AG10" s="64"/>
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="23"/>
@@ -5487,7 +5479,9 @@
       </c>
       <c r="AQ10" s="23"/>
       <c r="AR10" s="23"/>
-      <c r="AT10" s="23"/>
+      <c r="AT10" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="AU10" s="23"/>
       <c r="AV10" s="23"/>
       <c r="AW10" s="23"/>
@@ -5512,13 +5506,13 @@
     </row>
     <row r="11" ht="13" spans="1:67">
       <c r="A11" s="107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="24">
         <v>44524</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="23">
         <v>26.7</v>
@@ -5591,7 +5585,7 @@
         <v>90</v>
       </c>
       <c r="AG11" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
@@ -5620,7 +5614,7 @@
       <c r="AQ11" s="23"/>
       <c r="AR11" s="23"/>
       <c r="AT11" s="64" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AU11" s="23"/>
       <c r="AV11" s="23"/>
@@ -5646,13 +5640,13 @@
     </row>
     <row r="12" ht="13" spans="1:67">
       <c r="A12" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="24">
         <v>44524</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="23">
         <v>32.91</v>
@@ -5704,7 +5698,7 @@
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z12" s="50">
         <f t="shared" si="2"/>
@@ -5725,7 +5719,7 @@
         <v>90</v>
       </c>
       <c r="AG12" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
@@ -5754,7 +5748,7 @@
       <c r="AQ12" s="23"/>
       <c r="AR12" s="23"/>
       <c r="AT12" s="64" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AU12" s="23"/>
       <c r="AV12" s="23"/>
@@ -5780,7 +5774,7 @@
     </row>
     <row r="13" ht="13" spans="1:67">
       <c r="A13" s="107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -5850,7 +5844,7 @@
     </row>
     <row r="14" ht="13" spans="1:67">
       <c r="A14" s="107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -5920,7 +5914,7 @@
     </row>
     <row r="15" ht="13" spans="1:67">
       <c r="A15" s="107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -5990,7 +5984,7 @@
     </row>
     <row r="16" ht="13" spans="1:67">
       <c r="A16" s="107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -6060,7 +6054,7 @@
     </row>
     <row r="17" ht="13" spans="1:67">
       <c r="A17" s="107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -6130,7 +6124,7 @@
     </row>
     <row r="18" ht="13" spans="1:67">
       <c r="A18" s="107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -6200,7 +6194,7 @@
     </row>
     <row r="19" ht="13" spans="1:67">
       <c r="A19" s="107" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -6270,7 +6264,7 @@
     </row>
     <row r="20" ht="13" spans="1:67">
       <c r="A20" s="107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -6340,7 +6334,7 @@
     </row>
     <row r="21" ht="13" spans="1:67">
       <c r="A21" s="107" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -6410,7 +6404,7 @@
     </row>
     <row r="22" ht="13" spans="1:67">
       <c r="A22" s="107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -6480,7 +6474,7 @@
     </row>
     <row r="23" ht="13" spans="1:67">
       <c r="A23" s="107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -6550,7 +6544,7 @@
     </row>
     <row r="24" ht="13" spans="1:67">
       <c r="A24" s="107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -6620,7 +6614,7 @@
     </row>
     <row r="25" ht="13" spans="1:67">
       <c r="A25" s="107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -6690,7 +6684,7 @@
     </row>
     <row r="26" ht="13" spans="1:67">
       <c r="A26" s="107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -6760,7 +6754,7 @@
     </row>
     <row r="27" ht="13" spans="1:67">
       <c r="A27" s="107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -6830,7 +6824,7 @@
     </row>
     <row r="28" ht="13" spans="1:67">
       <c r="A28" s="107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -6900,7 +6894,7 @@
     </row>
     <row r="29" ht="13" spans="1:67">
       <c r="A29" s="107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -6970,7 +6964,7 @@
     </row>
     <row r="30" ht="13" spans="1:67">
       <c r="A30" s="107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="31" ht="13" spans="1:67">
       <c r="A31" s="107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -7110,7 +7104,7 @@
     </row>
     <row r="32" ht="13" spans="1:67">
       <c r="A32" s="107" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -7180,7 +7174,7 @@
     </row>
     <row r="33" ht="13" spans="1:67">
       <c r="A33" s="107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -7250,7 +7244,7 @@
     </row>
     <row r="34" ht="13" spans="1:67">
       <c r="A34" s="107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -7320,7 +7314,7 @@
     </row>
     <row r="35" ht="13" spans="1:67">
       <c r="A35" s="107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -7390,7 +7384,7 @@
     </row>
     <row r="36" ht="13" spans="1:67">
       <c r="A36" s="107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -7460,7 +7454,7 @@
     </row>
     <row r="37" ht="13" spans="1:67">
       <c r="A37" s="107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -7530,7 +7524,7 @@
     </row>
     <row r="38" ht="13" spans="1:67">
       <c r="A38" s="107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -7600,7 +7594,7 @@
     </row>
     <row r="39" ht="13" spans="1:67">
       <c r="A39" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -7670,7 +7664,7 @@
     </row>
     <row r="40" ht="13" spans="1:67">
       <c r="A40" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -7740,7 +7734,7 @@
     </row>
     <row r="41" ht="13" spans="1:67">
       <c r="A41" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -7810,7 +7804,7 @@
     </row>
     <row r="42" ht="13" spans="1:67">
       <c r="A42" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -7880,7 +7874,7 @@
     </row>
     <row r="43" ht="13" spans="1:67">
       <c r="A43" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -7950,7 +7944,7 @@
     </row>
     <row r="44" ht="13" spans="1:67">
       <c r="A44" s="107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -8020,7 +8014,7 @@
     </row>
     <row r="45" ht="13" spans="1:67">
       <c r="A45" s="107" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -8090,7 +8084,7 @@
     </row>
     <row r="46" ht="13" spans="1:67">
       <c r="A46" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -8160,7 +8154,7 @@
     </row>
     <row r="47" ht="13" spans="1:67">
       <c r="A47" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8230,7 +8224,7 @@
     </row>
     <row r="48" ht="13" spans="1:67">
       <c r="A48" s="107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8300,7 +8294,7 @@
     </row>
     <row r="49" ht="13" spans="1:67">
       <c r="A49" s="107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8370,7 +8364,7 @@
     </row>
     <row r="50" ht="13" spans="1:67">
       <c r="A50" s="107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -8440,7 +8434,7 @@
     </row>
     <row r="51" ht="13" spans="1:67">
       <c r="A51" s="107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -8510,7 +8504,7 @@
     </row>
     <row r="52" ht="13" spans="1:67">
       <c r="A52" s="107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -8580,7 +8574,7 @@
     </row>
     <row r="53" ht="13" spans="1:67">
       <c r="A53" s="107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -8650,7 +8644,7 @@
     </row>
     <row r="54" ht="13" spans="1:67">
       <c r="A54" s="107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -8720,7 +8714,7 @@
     </row>
     <row r="55" ht="13" spans="1:67">
       <c r="A55" s="107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -8790,7 +8784,7 @@
     </row>
     <row r="56" ht="13" spans="1:67">
       <c r="A56" s="107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8860,7 +8854,7 @@
     </row>
     <row r="57" ht="13" spans="1:67">
       <c r="A57" s="107" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8930,7 +8924,7 @@
     </row>
     <row r="58" ht="13" spans="1:67">
       <c r="A58" s="107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -9000,7 +8994,7 @@
     </row>
     <row r="59" ht="13" spans="1:67">
       <c r="A59" s="107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -9070,7 +9064,7 @@
     </row>
     <row r="60" ht="13" spans="1:67">
       <c r="A60" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -9140,7 +9134,7 @@
     </row>
     <row r="61" ht="13" spans="1:67">
       <c r="A61" s="107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -9210,7 +9204,7 @@
     </row>
     <row r="62" ht="13" spans="1:67">
       <c r="A62" s="107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -9280,7 +9274,7 @@
     </row>
     <row r="63" ht="13" spans="1:67">
       <c r="A63" s="107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -38176,22 +38170,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="CU1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/我的创作/炒股/SEAP交易策略.xlsx
+++ b/我的创作/炒股/SEAP交易策略.xlsx
@@ -3810,11 +3810,11 @@
   <dimension ref="A1:DE560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
